--- a/data/financial_statements/sofp/IFF.xlsx
+++ b/data/financial_statements/sofp/IFF.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -140,9 +257,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -195,12 +309,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -505,129 +616,129 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
         <v>548000000</v>
@@ -748,23 +859,23 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>2327000000</v>
+        <v>2031000000</v>
       </c>
       <c r="C3">
-        <v>2476000000</v>
+        <v>2180000000</v>
       </c>
       <c r="D3">
-        <v>2463000000</v>
+        <v>2160000000</v>
       </c>
       <c r="E3">
-        <v>2215000000</v>
+        <v>1906000000</v>
       </c>
       <c r="F3">
-        <v>2250000000</v>
+        <v>1975000000</v>
       </c>
       <c r="G3">
         <v>2059000000</v>
@@ -870,8 +981,8 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
         <v>3122000000</v>
@@ -992,23 +1103,23 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
         <v>497000000</v>
       </c>
       <c r="C5">
-        <v>1688000000</v>
+        <v>1206000000</v>
       </c>
       <c r="D5">
-        <v>1588000000</v>
+        <v>1141000000</v>
       </c>
       <c r="E5">
-        <v>1541000000</v>
+        <v>1122000000</v>
       </c>
       <c r="F5">
-        <v>1687000000</v>
+        <v>1245000000</v>
       </c>
       <c r="G5">
         <v>580000000</v>
@@ -1033,8 +1144,8 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
         <v>6494000000</v>
@@ -1155,23 +1266,23 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
-        <v>4729000000</v>
+        <v>4055000000</v>
       </c>
       <c r="C7">
-        <v>4951000000</v>
+        <v>4177000000</v>
       </c>
       <c r="D7">
-        <v>5058000000</v>
+        <v>4295000000</v>
       </c>
       <c r="E7">
-        <v>5156000000</v>
+        <v>4368000000</v>
       </c>
       <c r="F7">
-        <v>5089000000</v>
+        <v>4295000000</v>
       </c>
       <c r="G7">
         <v>4566000000</v>
@@ -1277,8 +1388,8 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
         <v>29000000</v>
@@ -1312,8 +1423,8 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
         <v>22691000000</v>
@@ -1434,8 +1545,8 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="R10">
         <v>87481000</v>
@@ -1505,23 +1616,23 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
-        <v>417000000</v>
+        <v>663000000</v>
       </c>
       <c r="C11">
-        <v>471000000</v>
+        <v>726000000</v>
       </c>
       <c r="D11">
-        <v>437000000</v>
+        <v>654000000</v>
       </c>
       <c r="E11">
-        <v>426000000</v>
+        <v>616000000</v>
       </c>
       <c r="F11">
-        <v>367000000</v>
+        <v>502000000</v>
       </c>
       <c r="G11">
         <v>518000000</v>
@@ -1627,8 +1738,8 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
         <v>28043000000</v>
@@ -1749,8 +1860,8 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
         <v>34537000000</v>
@@ -1871,8 +1982,8 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
         <v>512000000</v>
@@ -1993,8 +2104,8 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
         <v>1527000000</v>
@@ -2115,8 +2226,8 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
         <v>206000000</v>
@@ -2237,8 +2348,8 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
         <v>253000000</v>
@@ -2344,8 +2455,8 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
         <v>605000000</v>
@@ -2385,23 +2496,23 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
-        <v>1082000000</v>
+        <v>1128000000</v>
       </c>
       <c r="C19">
-        <v>1126000000</v>
+        <v>941000000</v>
       </c>
       <c r="D19">
-        <v>1201000000</v>
+        <v>1003000000</v>
       </c>
       <c r="E19">
-        <v>1260000000</v>
+        <v>933000000</v>
       </c>
       <c r="F19">
-        <v>1375000000</v>
+        <v>1040000000</v>
       </c>
       <c r="G19">
         <v>790000000</v>
@@ -2507,8 +2618,8 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
         <v>3626000000</v>
@@ -2629,23 +2740,23 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
-        <v>10816000000</v>
+        <v>10260000000</v>
       </c>
       <c r="C21">
-        <v>11009000000</v>
+        <v>10363000000</v>
       </c>
       <c r="D21">
-        <v>11391000000</v>
+        <v>10738000000</v>
       </c>
       <c r="E21">
-        <v>11453000000</v>
+        <v>10768000000</v>
       </c>
       <c r="F21">
-        <v>11489000000</v>
+        <v>10818000000</v>
       </c>
       <c r="G21">
         <v>11354000000</v>
@@ -2751,8 +2862,8 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="R22">
         <v>33867000</v>
@@ -2825,8 +2936,8 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
         <v>354000000</v>
@@ -2947,23 +3058,23 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
-        <v>2103000000</v>
+        <v>2280000000</v>
       </c>
       <c r="C24">
-        <v>2232000000</v>
+        <v>2362000000</v>
       </c>
       <c r="D24">
-        <v>2343000000</v>
+        <v>2454000000</v>
       </c>
       <c r="E24">
-        <v>2436000000</v>
+        <v>2518000000</v>
       </c>
       <c r="F24">
-        <v>2496000000</v>
+        <v>2610000000</v>
       </c>
       <c r="G24">
         <v>2674000000</v>
@@ -3003,8 +3114,8 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
         <v>68000000</v>
@@ -3056,23 +3167,23 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
-        <v>826000000</v>
+        <v>472000000</v>
       </c>
       <c r="C26">
-        <v>834000000</v>
+        <v>462000000</v>
       </c>
       <c r="D26">
-        <v>804000000</v>
+        <v>426000000</v>
       </c>
       <c r="E26">
-        <v>832000000</v>
+        <v>462000000</v>
       </c>
       <c r="F26">
-        <v>996000000</v>
+        <v>478000000</v>
       </c>
       <c r="G26">
         <v>477000000</v>
@@ -3178,8 +3289,8 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
         <v>13990000000</v>
@@ -3300,23 +3411,23 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
-        <v>17548000000</v>
+        <v>17616000000</v>
       </c>
       <c r="C28">
-        <v>18925000000</v>
+        <v>19011000000</v>
       </c>
       <c r="D28">
-        <v>18681000000</v>
+        <v>18782000000</v>
       </c>
       <c r="E28">
-        <v>18436000000</v>
+        <v>18541000000</v>
       </c>
       <c r="F28">
-        <v>18674000000</v>
+        <v>18779000000</v>
       </c>
       <c r="G28">
         <v>19064000000</v>
@@ -3422,8 +3533,8 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
         <v>19832000000</v>
@@ -3544,8 +3655,8 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
         <v>35000000</v>
@@ -3666,8 +3777,8 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
         <v>1186000000</v>
@@ -3788,8 +3899,8 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
         <v>979000000</v>
@@ -3910,8 +4021,8 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="E33">
         <v>-1133000000</v>
@@ -3942,23 +4053,23 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
-        <v>16887000000</v>
+        <v>16921000000</v>
       </c>
       <c r="C34">
-        <v>20260000000</v>
+        <v>20293000000</v>
       </c>
       <c r="D34">
-        <v>20933000000</v>
+        <v>20965000000</v>
       </c>
       <c r="E34">
-        <v>21082000000</v>
+        <v>21117000000</v>
       </c>
       <c r="F34">
-        <v>21426000000</v>
+        <v>21473000000</v>
       </c>
       <c r="G34">
         <v>21800000000</v>
@@ -4064,23 +4175,23 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B35">
-        <v>16887000000</v>
+        <v>16921000000</v>
       </c>
       <c r="C35">
-        <v>20260000000</v>
+        <v>20293000000</v>
       </c>
       <c r="D35">
-        <v>20933000000</v>
+        <v>20965000000</v>
       </c>
       <c r="E35">
-        <v>21082000000</v>
+        <v>21117000000</v>
       </c>
       <c r="F35">
-        <v>21426000000</v>
+        <v>21473000000</v>
       </c>
       <c r="G35">
         <v>21800000000</v>
@@ -4186,8 +4297,8 @@
       </c>
     </row>
     <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B36">
         <v>34537000000</v>
@@ -4308,8 +4419,8 @@
       </c>
     </row>
     <row r="37" spans="1:40">
-      <c r="A37" t="s">
-        <v>36</v>
+      <c r="A37" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B37">
         <v>254950000</v>
@@ -4430,8 +4541,8 @@
       </c>
     </row>
     <row r="38" spans="1:40">
-      <c r="A38" t="s">
-        <v>37</v>
+      <c r="A38" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B38">
         <v>-5770000000</v>
@@ -4552,23 +4663,23 @@
       </c>
     </row>
     <row r="39" spans="1:40">
-      <c r="A39" t="s">
-        <v>38</v>
+      <c r="A39" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="B39">
-        <v>10873000000</v>
+        <v>10317000000</v>
       </c>
       <c r="C39">
-        <v>12289000000</v>
+        <v>11643000000</v>
       </c>
       <c r="D39">
-        <v>11781000000</v>
+        <v>11128000000</v>
       </c>
       <c r="E39">
-        <v>11484000000</v>
+        <v>10799000000</v>
       </c>
       <c r="F39">
-        <v>11515000000</v>
+        <v>10844000000</v>
       </c>
       <c r="G39">
         <v>11144000000</v>
@@ -4674,23 +4785,23 @@
       </c>
     </row>
     <row r="40" spans="1:40">
-      <c r="A40" t="s">
-        <v>39</v>
+      <c r="A40" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="B40">
-        <v>11421000000</v>
+        <v>10865000000</v>
       </c>
       <c r="C40">
-        <v>12862000000</v>
+        <v>12216000000</v>
       </c>
       <c r="D40">
-        <v>12442000000</v>
+        <v>11789000000</v>
       </c>
       <c r="E40">
-        <v>12199000000</v>
+        <v>11514000000</v>
       </c>
       <c r="F40">
-        <v>12309000000</v>
+        <v>11638000000</v>
       </c>
       <c r="G40">
         <v>12086000000</v>
